--- a/tools/intuitem/doc-pol.xlsx
+++ b/tools/intuitem/doc-pol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/intuitem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5FF93-2CE5-3544-8F6E-C54B15373DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE77990F-44B3-1947-AC41-6EDEEDE86C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35120" windowHeight="20200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35120" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="3" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>Third party supplier security policy</t>
   </si>
   <si>
-    <t>Information security awareness and traning policy</t>
-  </si>
-  <si>
     <t>Workstations and teleworking policy</t>
   </si>
   <si>
@@ -1006,9 +1003,6 @@
     <t>DOC.EDUC_PLAN</t>
   </si>
   <si>
-    <t>Information security awareness and traning plan</t>
-  </si>
-  <si>
     <t>csf_function</t>
   </si>
   <si>
@@ -2116,6 +2110,12 @@
     <t>Collecte et catégorisation des journaux
 Stockage sécurisé et politiques de rétention
 Analyse pour la détection d'anomalies et la réponse aux incidents</t>
+  </si>
+  <si>
+    <t>Information security awareness and training plan</t>
+  </si>
+  <si>
+    <t>Information security awareness and training policy</t>
   </si>
 </sst>
 </file>
@@ -2573,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B26082-4BCE-3241-A6CE-5878E545CE62}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2597,12 +2597,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2629,31 +2629,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,15 +2673,15 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,10 +2689,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2700,10 +2700,10 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2711,10 +2711,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2722,26 +2722,26 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1279AC8D-22DB-B048-848F-D6351885BF84}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A15" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2771,653 +2771,653 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
       <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" t="s">
         <v>188</v>
-      </c>
-      <c r="H21" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>534</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" t="s">
         <v>244</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G22" t="s">
-        <v>246</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" t="s">
         <v>285</v>
       </c>
-      <c r="F23" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" t="s">
-        <v>287</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s">
-        <v>292</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B27" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3446,314 +3446,314 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" t="s">
         <v>303</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" t="s">
         <v>304</v>
       </c>
-      <c r="F3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" t="s">
-        <v>306</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" t="s">
         <v>318</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="G5" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" t="s">
         <v>353</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="F6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G6" t="s">
-        <v>355</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F7" t="s">
-        <v>407</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" t="s">
         <v>427</v>
       </c>
-      <c r="G9" t="s">
-        <v>429</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G10" t="s">
         <v>428</v>
       </c>
-      <c r="G10" t="s">
-        <v>430</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G11" t="s">
+        <v>521</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G11" t="s">
-        <v>523</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
         <v>532</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>534</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3766,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3782,618 +3782,618 @@
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>535</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B26" t="s">
-        <v>409</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4409,7 +4409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB94720-40C1-4549-9BE9-365B5E7C50B2}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="200" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="200" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -4427,819 +4427,819 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="F3" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="306" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>512</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>511</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="323" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>278</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>339</v>
-      </c>
       <c r="F12" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E13" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>459</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>454</v>
-      </c>
       <c r="H18" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="H19" s="13" t="s">
         <v>446</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>466</v>
-      </c>
       <c r="H21" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G22" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>478</v>
-      </c>
       <c r="H24" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>481</v>
-      </c>
       <c r="F25" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G25" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>480</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G26" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>483</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F27" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>497</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E29" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>504</v>
-      </c>
       <c r="H29" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G30" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>507</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="F31" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="F32" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
